--- a/examples/Australia OGD/rations_issued/counters.xlsx
+++ b/examples/Australia OGD/rations_issued/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Australia OGD/rations_issued/counters.xlsx
+++ b/examples/Australia OGD/rations_issued/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -416,7 +416,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Error: Value 'ca Jul 1883' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value 'ca Jul 1883' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Error: Value '363' does not match regex '^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
+          <t>Error: Value '363' does not match regex #'^((([0-9])|([0-2][0-9])|([3][0-1]))\s)*(((Jan|January)|(Feb|February)|(Mar|March)|(Apr|April)|May|(Jun|June)|(Jul|July)|(Aug|August)|(Sep|September)|(Oct|October)|(Nov|November)|(|Dec|December))\s)*(\d{4})$'</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
